--- a/问题3/分析结果/附件3/附件3_条纹间隔数据.xlsx
+++ b/问题3/分析结果/附件3/附件3_条纹间隔数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24.99019759499337</v>
+        <v>24.90019999840639</v>
       </c>
       <c r="B2" t="n">
-        <v>1.094038830826229</v>
+        <v>1.004041234239249</v>
       </c>
     </row>
     <row r="3">
@@ -466,1110 +466,558 @@
         <v>23.04651939940771</v>
       </c>
       <c r="B4" t="n">
-        <v>5.483550007096987</v>
+        <v>9.39157013573719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17.56296939231072</v>
+        <v>13.65494926367052</v>
       </c>
       <c r="B5" t="n">
-        <v>3.917005199866599</v>
+        <v>0.2731004836468323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.64596419244412</v>
+        <v>13.38184878002368</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2641154124204359</v>
+        <v>4.344000077226109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.38184878002368</v>
+        <v>9.037848702797575</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2623871607462629</v>
+        <v>2.408935904156767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13.11946161927742</v>
+        <v>6.628912798640808</v>
       </c>
       <c r="B8" t="n">
-        <v>2.482606511858481</v>
+        <v>0.8074523339252622</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.63685510741894</v>
+        <v>5.821460464715546</v>
       </c>
       <c r="B9" t="n">
-        <v>1.471204300383386</v>
+        <v>0.6333984030419391</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.165650807035554</v>
+        <v>5.188062061673607</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1199210246939035</v>
+        <v>0.5311550303028181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.045729782341651</v>
+        <v>4.656907031370789</v>
       </c>
       <c r="B11" t="n">
-        <v>1.408813233219859</v>
+        <v>0.3554006868640061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.636916549121792</v>
+        <v>4.301506344506783</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9395087807985218</v>
+        <v>0.04152115221531094</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.69740776832327</v>
+        <v>4.259985192291472</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06637626495570004</v>
+        <v>0.04929399469931361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.63103150336757</v>
+        <v>4.210691197592158</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07337494751436946</v>
+        <v>0.2867666766346737</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.557656555853201</v>
+        <v>3.923924520957485</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7000262601893112</v>
+        <v>0.02873776428084263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.857630295663889</v>
+        <v>3.895186756676642</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07512088318419341</v>
+        <v>0.04483158066343051</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.782509412479696</v>
+        <v>3.850355176013212</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04795943702356986</v>
+        <v>0.2317464080517944</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.734549975456126</v>
+        <v>3.618608767961417</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06117416366696382</v>
+        <v>0.02071382433503377</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.673375811789162</v>
+        <v>3.597894943626383</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2732537690309957</v>
+        <v>0.02294376852205726</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.400122042758166</v>
+        <v>3.574951175104326</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0666521725961573</v>
+        <v>0.01899988168038247</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.333469870162009</v>
+        <v>3.555951293423944</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05160862676961742</v>
+        <v>0.1728376989570934</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.281861243392392</v>
+        <v>3.38311359446685</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05194086893009331</v>
+        <v>0.02465112545286452</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.229920374462298</v>
+        <v>3.358462469013986</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04056063766662454</v>
+        <v>0.0237574603537567</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.189359736795674</v>
+        <v>3.334705008660229</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03866058089225088</v>
+        <v>0.01812922722522625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.150699155903423</v>
+        <v>3.316575781435003</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03934576664166123</v>
+        <v>0.01898177197618445</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.111353389261762</v>
+        <v>3.297594009458818</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04123106242038155</v>
+        <v>0.0260064388743162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.07012232684138</v>
+        <v>3.271587570584502</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06846677885499641</v>
+        <v>0.01796156708490226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.001655547986384</v>
+        <v>3.2536260034996</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06546567448118523</v>
+        <v>0.06747175540014094</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.936189873505199</v>
+        <v>3.186154248099459</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06720690179934508</v>
+        <v>0.03341606345871639</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.868982971705853</v>
+        <v>3.152738184640743</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03855280740843181</v>
+        <v>0.01952623193845682</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.830430164297422</v>
+        <v>3.133211952702286</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04789216703303367</v>
+        <v>0.01788213117641568</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.782537997264388</v>
+        <v>3.11532982152587</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03828636974886646</v>
+        <v>0.01490168340427678</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.744251627515522</v>
+        <v>3.100428138121593</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03554183283410417</v>
+        <v>0.02071531518290648</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.708709794681417</v>
+        <v>3.079712822938687</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06327493320131605</v>
+        <v>0.01727835903621466</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.645434861480101</v>
+        <v>3.062434463902472</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03203117066488126</v>
+        <v>0.02333277373645792</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.61340369081522</v>
+        <v>3.039101690166014</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03563635034697832</v>
+        <v>0.01506483078554277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.577767340468242</v>
+        <v>3.024036859380471</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07649483072973862</v>
+        <v>0.0153525931143208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.501272509738503</v>
+        <v>3.008684266266151</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06924954831394459</v>
+        <v>0.02252392498385758</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.432022961424559</v>
+        <v>2.986160341282293</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02916497825052033</v>
+        <v>0.01752310311238681</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.402857983174038</v>
+        <v>2.968637238169906</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02785935036111109</v>
+        <v>0.01731864805021255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.374998632812927</v>
+        <v>2.951318590119694</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04565882682796119</v>
+        <v>0.01337731133962095</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.329339805984966</v>
+        <v>2.937941278780073</v>
       </c>
       <c r="B42" t="n">
-        <v>0.027833461478183</v>
+        <v>0.0161397894794173</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.301506344506783</v>
+        <v>2.921801489300655</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04152115221531094</v>
+        <v>0.02084086519959039</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4.259985192291472</v>
+        <v>2.900960624101065</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03299050520109414</v>
+        <v>0.01252361513535671</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.226994687090378</v>
+        <v>2.888437008965708</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02823550440404521</v>
+        <v>0.01838465634074415</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.198759182686333</v>
+        <v>2.870052352624964</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02534549722817481</v>
+        <v>0.01658313328278016</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.173413685458158</v>
+        <v>2.853469219342184</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03166653083845272</v>
+        <v>0.01172859637580448</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.141747154619705</v>
+        <v>2.84174062296638</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0303767073971617</v>
+        <v>0.01548790057844451</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.111370447222543</v>
+        <v>2.826252722387935</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02752251501768566</v>
+        <v>0.01265154922878997</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.083847932204858</v>
+        <v>2.813601173159145</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02556778263288439</v>
+        <v>0.01178223230274122</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.058280149571973</v>
+        <v>2.801818940856404</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02525125614637513</v>
+        <v>0.01543122503674343</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.033028893425598</v>
+        <v>2.78638771581966</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02338972085473756</v>
+        <v>0.0160037849329826</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.009639172570861</v>
+        <v>2.770383930886678</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02464983042485613</v>
+        <v>0.01618591341349473</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.984989342146005</v>
+        <v>2.754198017473183</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02283740233584686</v>
+        <v>0.01527490726165626</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.962151939810158</v>
+        <v>2.738923110211527</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02407272219623247</v>
+        <v>0.01939165284725286</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.938079217613925</v>
+        <v>2.719531457364274</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02525689887541871</v>
+        <v>0.01065471206884805</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.912822318738506</v>
+        <v>2.708876745295426</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02785012931192465</v>
+        <v>0.01617705805249425</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.884972189426582</v>
+        <v>2.692699687242932</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02673761725270962</v>
+        <v>0.01701990403721032</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.858234572173872</v>
+        <v>2.675679783205721</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02566570857653083</v>
+        <v>0.01031523596586625</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.832568863597341</v>
+        <v>2.665364547239855</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02182706841023219</v>
+        <v>0.01329135532390469</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.810741795187109</v>
+        <v>2.65207319191595</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0229648755512355</v>
+        <v>0.01013367013870692</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.787776919635874</v>
+        <v>2.641939521777243</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02132269354240579</v>
+        <v>0.011392025926932</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.766454226093468</v>
+        <v>2.630547495850311</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02243576358962596</v>
+        <v>0.01393762270094134</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.744018462503842</v>
+        <v>2.61660987314937</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02016457163510399</v>
+        <v>0.01281072188374122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.723853890868738</v>
+        <v>2.603799151265629</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02127193236579572</v>
+        <v>0.0100930902673686</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.702581958502942</v>
+        <v>2.59370606099826</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0216834659044931</v>
+        <v>0.01033752926868203</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.680898492598449</v>
+        <v>2.583368531729578</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02013821858322062</v>
+        <v>0.01471615978460505</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.660760274015229</v>
+        <v>2.568652371944973</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02055920386891819</v>
+        <v>0.016749213607548</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.64020107014631</v>
+        <v>2.551903158337425</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0203295683448812</v>
+        <v>0.01187549743619787</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.619871501801429</v>
+        <v>2.540027660901227</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02260039166557837</v>
+        <v>0.01637918191678356</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.597271110135851</v>
+        <v>2.523648478984444</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0204709513259238</v>
+        <v>0.01161394956261619</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.576800158809927</v>
+        <v>2.512034529421828</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0214582397999048</v>
+        <v>0.01030145383371384</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.555341919010022</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.0193940586827912</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3.535947860327231</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.01799221471201085</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>3.51795564561522</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.01780881445565319</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>3.500146831159567</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.01821509721675652</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>3.48193173394281</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.02091575270151669</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>3.461015981241294</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.01838247677464899</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>3.442633504466645</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.01705739964127551</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>3.425576104825369</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.0180077592270611</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>3.407568345598308</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.01671253428180197</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>3.390855811316506</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.01764551020688865</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>3.373210301109618</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.01637802288461598</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>3.356832278225002</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.03228240565499796</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>3.324549872570004</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.01696498505765787</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3.307584887512346</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.01574736076205108</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>3.291837526750295</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.01663360436607686</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>3.275203922384218</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.01595441673088649</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>3.259249505653331</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.01630566500899722</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>3.242943840644334</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.01564241972806446</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>3.22730142091627</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.01648636835843797</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3.210815052557832</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.01484146791870344</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3.195973584639128</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.01519363831160891</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>3.180779946327519</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.01456573167212705</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>3.166214214655392</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.01443393156248707</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>3.151780283092905</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.01525157977778235</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>3.136528703315123</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.01510371037734659</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>3.121424992937776</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.01821341721382774</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>3.103211575723948</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.01432643468236439</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>3.088885141041584</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.01373807982124875</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>3.075147061220335</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.01406906587133694</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>3.061077995348998</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.01349238409780007</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>3.047585611251198</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.01470555195232714</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>3.032880059298871</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.01412513872835053</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>3.018754920570521</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.01399417764943678</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>3.004760742921084</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.01343290146624554</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>2.991327841454838</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.01502309642147237</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>2.976304745033366</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.01360425538785615</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>2.96270048964551</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.0126408689405757</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>2.950059620704934</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.02454925810840303</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>2.925510362596531</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.02292630811618945</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>2.902584054480342</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.01253677041672674</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>2.890047284063615</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.01282884074812696</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>2.877218443315488</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.01192423347337446</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>2.865294209842113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.01417861107504992</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>2.851115598767064</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.01170848968669658</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>2.839407109080367</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.01238416213510662</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>2.82702294694526</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.01418470314644349</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>2.812838243798817</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.01215398061963713</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>2.80068426317918</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.02027281789350655</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>2.780411445285673</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.01113687891253123</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>2.769274566373142</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.01507654889995891</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>2.754198017473183</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.01491252722188907</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>2.739285490251294</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.01975403288702005</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>2.719531457364274</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.01206947554542248</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>2.707461981818851</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.01441276876822739</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>2.693049213050624</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.0180601203186499</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>2.674989092731974</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.01202004735045437</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>2.66296904538152</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.01089585346556943</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>2.65207319191595</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.01080635582082046</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>2.64126683609513</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.01038576454779294</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>2.630881071547337</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.01030440841146074</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>2.620576663135876</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.0187367460200889</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>2.601839917115787</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.01911457884979306</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>2.582725338265994</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.01439094934722718</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>2.568334388918767</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.0158032990900927</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>2.552531089828674</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.01157016447168813</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>2.540960925356986</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.01023026292305085</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>2.530730662433935</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.009229824791356922</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>2.521500837642578</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.009771059579021912</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>2.511729778063557</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.00999670247544282</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
         <v>2.501733075588114</v>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
